--- a/biology/Médecine/Liquide_biologique/Liquide_biologique.xlsx
+++ b/biology/Médecine/Liquide_biologique/Liquide_biologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un liquide androgènes  (ou liquide organique ou, à tort, sous l'influence de l'anglais body fluid, fluide corporel - en effet, les fluides comprennent les liquides et les gaz) désigne de manière générale un liquide produit par un organisme vivant.
 En médecine, la biologie médicale est la science qui étudie ces liquides.
@@ -515,12 +527,58 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liquide au sein d'un circuit ou d'une cavité fermés
-Liquide circulant
-Le sang (environ cinq litres) contenu dans l'appareil circulatoire (veines, capillaires, artères, cœur)
-La lymphe (quantité variable, environ huit litres) et le chyle dans le système lymphatique
-Liquide non circulant
-Le liquide cérébrospinal (environ 150 ml) contenu dans la boîte crânienne et le canal rachidien, baignant le système nerveux central et les racines des nerfs
+          <t>Liquide au sein d'un circuit ou d'une cavité fermés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Liquide circulant</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le sang (environ cinq litres) contenu dans l'appareil circulatoire (veines, capillaires, artères, cœur)
+La lymphe (quantité variable, environ huit litres) et le chyle dans le système lymphatique</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liquide_biologique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liquide_biologique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des liquides biologiques physiologiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liquide au sein d'un circuit ou d'une cavité fermés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Liquide non circulant</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le liquide cérébrospinal (environ 150 ml) contenu dans la boîte crânienne et le canal rachidien, baignant le système nerveux central et les racines des nerfs
 Le liquide synovial à l'intérieur des capsules articulaires, des bourses séreuses et des gaines synoviales
 Le liquide pleural dans la cavité pleurale autour de chacun des deux poumons
 Le liquide péritonéal dans la cavité péritonéale autour des intestins
@@ -530,10 +588,47 @@
 La périlymphe dans le labyrinthe osseux et baignant le labyrinthe membraneux de chaque oreille interne
 L'endolymphe dans le labyrinthe membraneux de chaque oreille interne
 Le liquide amniotique (jusqu'à 800 ml à 28 semaines d'âge gestationnel) dans l'utérus autour de l'embryon ou du fœtus au cours de la grossesse chez la femme
-Le liquide contenu dans les cavités embryonnaires transitoires que sont le blastocèle, la vésicule vitelline primitive et la cavité choriale
-Liquide dans un circuit ouvert
-Liquide avec un système spécifique
-L'urine (environ 1,5 litre par jour) produite par les deux reins et stockée dans la vessie (300 ml)
+Le liquide contenu dans les cavités embryonnaires transitoires que sont le blastocèle, la vésicule vitelline primitive et la cavité choriale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liquide_biologique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liquide_biologique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des liquides biologiques physiologiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liquide dans un circuit ouvert</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Liquide avec un système spécifique</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'urine (environ 1,5 litre par jour) produite par les deux reins et stockée dans la vessie (300 ml)
 La salive (environ 1 litre par jour) produite par les glandes salivaires (parotides, submandibulaires et sublinguales essentiellement)
 Le suc gastrique (environ 2 litres par jour) produit par l'estomac
 La bile (environ 1 litre par jour) produite par le foie et stockée dans la vésicule biliaire (50 ml)
@@ -542,8 +637,47 @@
 Le sperme issu de la réunion des liquides des vésicules séminales et de la prostate chez l'homme
 Le lait (jusqu'à 800 ml par jour) produit par chaque glande mammaire au cours des périodes d'allaitement chez la femme
 Parmi ces liquides, ceux qui sont excrétés sont l'urine, le sperme et le lait.
-Liquide sans système spécifique
-La sueur (débit variable : 100 ml à 8 litres par jour) produite par les glandes sudoripares de la peau
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liquide_biologique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liquide_biologique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des liquides biologiques physiologiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liquide dans un circuit ouvert</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Liquide sans système spécifique</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sueur (débit variable : 100 ml à 8 litres par jour) produite par les glandes sudoripares de la peau
 Les expectorations issues des sécrétions des muqueuses des voies respiratoires basses (trachée et bronches)
 Le mucus, désignant toute sécrétion des muqueuses digestives, respiratoires et génitales
 Les chassies, sécrétées par les yeux pendant le sommeil
@@ -552,31 +686,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Liquide_biologique</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liquide_biologique</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liquide pathologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pus ou la sérosité désignent des liquides pathologiques qui peuvent être :
 sécrétés ;
@@ -587,34 +723,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Liquide_biologique</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liquide_biologique</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Analyse des liquides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recueil
-Pour les liquides qui sont excrétés un simple recueil suffit : urine, sueur, lait, sperme, expectoration :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueil</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les liquides qui sont excrétés un simple recueil suffit : urine, sueur, lait, sperme, expectoration :
 prélèvement urétral ;
 prélèvement vaginal ;
 urines de premier jet ;
@@ -632,8 +773,43 @@
 liquide amniotique : amniocentèse ;
 liquide d'oreille moyenne : paracentèse.
 Les ponctions sanguines sont en principe effectuées par un infirmier, les autres par un médecin.
-Type d'analyse
-La spécialité médicale chargée d'étudier ces liquides est la biologie médicale. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liquide_biologique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liquide_biologique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Analyse des liquides</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Type d'analyse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La spécialité médicale chargée d'étudier ces liquides est la biologie médicale. 
 Ces liquides peuvent être étudiés selon plusieurs angles :
 la biochimie va en étudier les molécules avec l'hormonologie pour les hormones et la toxicologie pour les médicaments et toxiques ;
 la cytologie pathologique va en étudier les cellules pathologiques ;
@@ -647,31 +823,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Liquide_biologique</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liquide_biologique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Thanatopraxie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thanatopracteur doit vider le cadavre de ses fluides corporels, et les remplacer par des produits chimiques assurant la conservation du corps en tuant la vie microbienne qui s'y développe normalement. 
  Portail de la médecine   Portail de la biologie                    </t>
